--- a/ml/Correlation_regression_analysis_of_multivariate_data.xlsx
+++ b/ml/Correlation_regression_analysis_of_multivariate_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C7DB455-02AD-41B6-A9FB-8120DAB84949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE1EAE2A-2769-4628-9217-724ED822DA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,8 +30,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>X1</t>
   </si>
@@ -74,13 +96,16 @@
   <si>
     <t>Δx</t>
   </si>
+  <si>
+    <t>distribution histogram</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -204,25 +229,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9554,18 +9585,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B71" sqref="B65:F71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
     <col min="16" max="16" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10088,14 +10121,14 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="18.75">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7"/>
@@ -10582,18 +10615,18 @@
       <c r="A58" s="4"/>
     </row>
     <row r="63" spans="1:7" ht="18.75">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="10"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="12"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="8" t="s">
         <v>0</v>
       </c>
@@ -10610,173 +10643,437 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="11">
         <f>MIN(B34:B56)</f>
         <v>1.2</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="11">
         <f t="shared" ref="C65:F65" si="0">MIN(C34:C56)</f>
         <v>9.9</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="11">
         <f t="shared" si="0"/>
         <v>173.8</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="11">
         <f t="shared" si="0"/>
         <v>15.1</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="11">
         <f t="shared" si="0"/>
         <v>104.9</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="11">
         <f>MAX(B34:B56)</f>
         <v>6.3</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="11">
         <f t="shared" ref="C66:F66" si="1">MAX(C34:C56)</f>
         <v>162.5</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="11">
         <f t="shared" si="1"/>
         <v>280.10000000000002</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="11">
         <f t="shared" si="1"/>
         <v>20.6</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="11">
         <f t="shared" si="1"/>
         <v>174.5</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="11">
         <f>STDEV(B34:B56)</f>
         <v>1.5650613393881525</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="11">
         <f t="shared" ref="C67:F67" si="2">STDEV(C34:C56)</f>
         <v>45.894383391407175</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="11">
         <f t="shared" si="2"/>
         <v>30.547844932818059</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="11">
         <f t="shared" si="2"/>
         <v>1.3897848669073156</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="11">
         <f t="shared" si="2"/>
         <v>20.571823471647232</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="11">
         <f>AVERAGE(B34:B56)</f>
         <v>3.865217391304347</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="11">
         <f t="shared" ref="C68:F68" si="3">AVERAGE(C34:C56)</f>
         <v>81.147826086956528</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="11">
         <f t="shared" si="3"/>
         <v>240.50869565217394</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="11">
         <f t="shared" si="3"/>
         <v>17.982608695652171</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="11">
         <f t="shared" si="3"/>
         <v>139.79130434782607</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="11">
         <f>MEDIAN(B34:B56)</f>
         <v>4.2</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="11">
         <f t="shared" ref="C69:F69" si="4">MEDIAN(C34:C56)</f>
         <v>73.2</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="11">
         <f t="shared" si="4"/>
         <v>248.8</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="11">
         <f t="shared" si="4"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="11">
         <f t="shared" si="4"/>
         <v>138.5</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="11">
         <f>SKEW(B34:B56)</f>
         <v>-0.44077798258753242</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="11">
         <f t="shared" ref="C70:F70" si="5">SKEW(C34:C56)</f>
         <v>0.25866770065030342</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="11">
         <f t="shared" si="5"/>
         <v>-0.75477971868898497</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="11">
         <f t="shared" si="5"/>
         <v>-0.28877225526475836</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="11">
         <f t="shared" si="5"/>
         <v>2.6268872899555588E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="11" t="s">
+    <row r="71" spans="1:10">
+      <c r="A71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
+      <c r="B71" s="11">
+        <f>(B66-B65)/5</f>
+        <v>1.02</v>
+      </c>
+      <c r="C71" s="11">
+        <f t="shared" ref="C71:F71" si="6">(C66-C65)/5</f>
+        <v>30.52</v>
+      </c>
+      <c r="D71" s="11">
+        <f t="shared" si="6"/>
+        <v>21.26</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000003</v>
+      </c>
+      <c r="F71" s="11">
+        <f t="shared" si="6"/>
+        <v>13.919999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="18.75">
+      <c r="A74" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J75" s="13"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="12">
+        <f>B65+B71</f>
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="B76" cm="1">
+        <f t="array" ref="B76:B81">FREQUENCY(B34:B56, A76:A80)</f>
+        <v>4</v>
+      </c>
+      <c r="C76" s="12">
+        <f>C65+C71</f>
+        <v>40.42</v>
+      </c>
+      <c r="D76" cm="1">
+        <f t="array" ref="D76:D81">FREQUENCY(C34:C56, C76:C80)</f>
+        <v>5</v>
+      </c>
+      <c r="E76" s="12">
+        <f>D65+D71</f>
+        <v>195.06</v>
+      </c>
+      <c r="F76" cm="1">
+        <f t="array" ref="F76:F81">FREQUENCY(D34:D56, E76:E80)</f>
+        <v>3</v>
+      </c>
+      <c r="G76" s="12">
+        <f>E65+E71</f>
+        <v>16.2</v>
+      </c>
+      <c r="H76" cm="1">
+        <f t="array" ref="H76:H81">FREQUENCY(E34:E56, G76:G80)</f>
+        <v>3</v>
+      </c>
+      <c r="I76" s="12">
+        <f>F65+F71</f>
+        <v>118.82000000000001</v>
+      </c>
+      <c r="J76" cm="1">
+        <f t="array" ref="J76:J81">FREQUENCY(F34:F56, I76:I80)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="12">
+        <f>A76+$B$71</f>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" s="12">
+        <f>C76+$C$71</f>
+        <v>70.94</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77" s="12">
+        <f>E76+$D$71</f>
+        <v>216.32</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" s="12">
+        <f>G76+$E$71</f>
+        <v>17.3</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77" s="12">
+        <f>I76+$F$71</f>
+        <v>132.74</v>
+      </c>
+      <c r="J77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="12">
+        <f t="shared" ref="A78:A80" si="7">A77+$B$71</f>
+        <v>4.26</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78" s="12">
+        <f t="shared" ref="C78:C80" si="8">C77+$C$71</f>
+        <v>101.46</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78" s="12">
+        <f t="shared" ref="E78:E80" si="9">E77+$D$71</f>
+        <v>237.57999999999998</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="G78" s="12">
+        <f t="shared" ref="G78:G80" si="10">G77+$E$71</f>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78" s="12">
+        <f t="shared" ref="I78:I80" si="11">I77+$F$71</f>
+        <v>146.66</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="12">
+        <f t="shared" si="7"/>
+        <v>5.2799999999999994</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79" s="12">
+        <f t="shared" si="8"/>
+        <v>131.97999999999999</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79" s="12">
+        <f t="shared" si="9"/>
+        <v>258.83999999999997</v>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79" s="12">
+        <f t="shared" si="10"/>
+        <v>19.500000000000004</v>
+      </c>
+      <c r="H79">
+        <v>7</v>
+      </c>
+      <c r="I79" s="12">
+        <f t="shared" si="11"/>
+        <v>160.57999999999998</v>
+      </c>
+      <c r="J79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="12">
+        <f t="shared" si="7"/>
+        <v>6.2999999999999989</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" s="12">
+        <f t="shared" si="8"/>
+        <v>162.5</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80" s="12">
+        <f t="shared" si="9"/>
+        <v>280.09999999999997</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80" s="12">
+        <f t="shared" si="10"/>
+        <v>20.600000000000005</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80" s="12">
+        <f t="shared" si="11"/>
+        <v>174.49999999999997</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A74:J74"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B26">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10786,7 +11083,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C26">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10796,7 +11093,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D26">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10806,7 +11103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E26">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10816,7 +11113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F26">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10826,7 +11123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B56">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10836,7 +11133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C56">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10846,7 +11143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D56">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10856,7 +11153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E56">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10866,7 +11163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F56">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10875,7 +11172,165 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B76:B80">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4550B364-22A2-4202-BD62-BCCC91DA59E8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:B80">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BF33E8BA-2F96-4EE6-85D0-593792B5A2AB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76:D80">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9F5F6A82-EB1F-4CB4-BDF5-321B34471472}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76:F80">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{46213CD1-C2B4-49C6-AC66-3D005714EA69}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76:H80">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4B551BDE-CA3C-4217-8412-12FAD8F51468}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76:J80">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7C5AD943-777B-48AD-8889-FA0D30B0DF62}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4550B364-22A2-4202-BD62-BCCC91DA59E8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B76:B80</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BF33E8BA-2F96-4EE6-85D0-593792B5A2AB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B76:B80</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9F5F6A82-EB1F-4CB4-BDF5-321B34471472}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D76:D80</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{46213CD1-C2B4-49C6-AC66-3D005714EA69}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F76:F80</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4B551BDE-CA3C-4217-8412-12FAD8F51468}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H76:H80</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7C5AD943-777B-48AD-8889-FA0D30B0DF62}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J76:J80</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>